--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_MEDIOS_ELECTRONICOS.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_MEDIOS_ELECTRONICOS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID_MEDIOS_ELECTRONICOS</t>
   </si>
@@ -33,6 +33,24 @@
   </si>
   <si>
     <t>TWITTER</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -402,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -425,6 +443,36 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_MEDIOS_ELECTRONICOS.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_MEDIOS_ELECTRONICOS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>ID_MEDIOS_ELECTRONICOS</t>
   </si>
@@ -51,6 +51,66 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>sanchez@yahoo.com</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>we@Dominio.edu</t>
+  </si>
+  <si>
+    <t>lnkjn@kjn.com</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>@Dominio.edu</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>sdfsdf@Dominio.edu</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>sdfdf@Dominio.edu</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>jhbuhbub@Dominio.edu</t>
+  </si>
+  <si>
+    <t>b8nuu@iuniu.co</t>
+  </si>
+  <si>
+    <t>1010</t>
   </si>
 </sst>
 </file>
@@ -420,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -473,6 +533,108 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_MEDIOS_ELECTRONICOS.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_MEDIOS_ELECTRONICOS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>ID_MEDIOS_ELECTRONICOS</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>1010</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>ercs@iiji.com</t>
   </si>
 </sst>
 </file>
@@ -480,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -635,6 +641,14 @@
         <v>21</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_MEDIOS_ELECTRONICOS.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_MEDIOS_ELECTRONICOS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>ID_MEDIOS_ELECTRONICOS</t>
   </si>
@@ -117,6 +117,30 @@
   </si>
   <si>
     <t>ercs@iiji.com</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>ecjnj@ejemplo.com</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>se@Dominio.edu</t>
+  </si>
+  <si>
+    <t>ere@ejemlo.com</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>hbjh@Dominio.edu</t>
+  </si>
+  <si>
+    <t>jhvjv@kjbi.com</t>
   </si>
 </sst>
 </file>
@@ -486,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,6 +673,36 @@
         <v>32</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_MEDIOS_ELECTRONICOS.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_MEDIOS_ELECTRONICOS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID_MEDIOS_ELECTRONICOS</t>
   </si>
@@ -38,109 +38,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>sanchez@yahoo.com</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>we@Dominio.edu</t>
-  </si>
-  <si>
-    <t>lnkjn@kjn.com</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>1005</t>
-  </si>
-  <si>
-    <t>@Dominio.edu</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>sdfsdf@Dominio.edu</t>
-  </si>
-  <si>
-    <t>1008</t>
-  </si>
-  <si>
-    <t>sdfdf@Dominio.edu</t>
-  </si>
-  <si>
-    <t>1009</t>
-  </si>
-  <si>
-    <t>jhbuhbub@Dominio.edu</t>
-  </si>
-  <si>
-    <t>b8nuu@iuniu.co</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>1011</t>
-  </si>
-  <si>
-    <t>ercs@iiji.com</t>
-  </si>
-  <si>
-    <t>1012</t>
-  </si>
-  <si>
-    <t>ecjnj@ejemplo.com</t>
-  </si>
-  <si>
-    <t>1013</t>
-  </si>
-  <si>
-    <t>se@Dominio.edu</t>
-  </si>
-  <si>
-    <t>ere@ejemlo.com</t>
-  </si>
-  <si>
-    <t>1014</t>
-  </si>
-  <si>
-    <t>hbjh@Dominio.edu</t>
-  </si>
-  <si>
-    <t>jhvjv@kjbi.com</t>
+    <t>Ejemplo@universidad.com</t>
+  </si>
+  <si>
+    <t>Ejemplo@dominio.com</t>
   </si>
 </sst>
 </file>
@@ -510,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,170 +438,11 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
